--- a/forecast_app/tests/predictions/docs-predictionsexp-rows.xlsx
+++ b/forecast_app/tests/predictions/docs-predictionsexp-rows.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cornell/IdeaProjects/forecast-repository/forecast_app/tests/predictions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95BE660F-2768-F84C-B404-BE2AA5C2825B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{781FF5A2-C0D3-0946-B61B-95F85E164CF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3860" yWindow="460" windowWidth="16620" windowHeight="17460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="460" windowWidth="23020" windowHeight="21060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="temp" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="44">
   <si>
     <t xml:space="preserve">PointPrediction:				</t>
   </si>
@@ -151,22 +151,7 @@
     <t>Season peak week</t>
   </si>
   <si>
-    <t>Next season flu strain composition</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A1a</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>A2/re</t>
-  </si>
-  <si>
-    <t>A3</t>
+    <t>zeros are skipped</t>
   </si>
 </sst>
 </file>
@@ -176,7 +161,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -329,6 +314,14 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -675,7 +668,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -703,6 +696,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1058,10 +1052,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11"/>
@@ -1309,7 +1303,7 @@
       <c r="G16" s="9"/>
       <c r="H16" s="10"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:10">
       <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1320,7 @@
       <c r="G17" s="9"/>
       <c r="H17" s="10"/>
     </row>
-    <row r="19" spans="1:9" s="8" customFormat="1">
+    <row r="19" spans="1:10" s="8" customFormat="1">
       <c r="A19" s="5" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:10">
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="B21" s="1" t="s">
         <v>29</v>
       </c>
@@ -1387,7 +1381,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
@@ -1403,7 +1397,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="B23" s="1" t="s">
         <v>30</v>
       </c>
@@ -1418,8 +1412,11 @@
       <c r="I23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="J23" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="B24" s="1" t="s">
         <v>30</v>
       </c>
@@ -1435,7 +1432,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="B25" s="1" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1448,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:10">
       <c r="B26" s="1" t="s">
         <v>26</v>
       </c>
@@ -1466,8 +1463,11 @@
       <c r="I26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="J26" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="B27" s="1" t="s">
         <v>26</v>
       </c>
@@ -1483,7 +1483,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:10">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:10">
       <c r="B29" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:10">
       <c r="B30" s="1" t="s">
         <v>26</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:10">
       <c r="B31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="B32" s="1" t="s">
         <v>29</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="1:9">
       <c r="B33" s="1" t="s">
         <v>29</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="1:9">
       <c r="B34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="1:9">
       <c r="B35" s="1" t="s">
         <v>29</v>
       </c>
@@ -1604,551 +1604,327 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
-      <c r="B36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="2">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9">
-      <c r="B37" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9">
+    <row r="37" spans="1:9" s="8" customFormat="1">
+      <c r="A37" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9">
       <c r="B38" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>27</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2.2999999999999998</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="10"/>
-      <c r="I38" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9">
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>47</v>
+        <v>27</v>
+      </c>
+      <c r="E39" s="2">
+        <v>6.5</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="10"/>
-      <c r="I39" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9">
+    </row>
+    <row r="40" spans="1:9">
       <c r="B40" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>48</v>
+        <v>27</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="10"/>
-      <c r="I40" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9">
+    </row>
+    <row r="41" spans="1:9">
       <c r="B41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10.023400000000001</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="10"/>
-      <c r="I41" s="2">
-        <v>0.22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9">
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
+      </c>
+      <c r="E42" s="2">
+        <v>1E-4</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="10"/>
-      <c r="I42" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9">
+    </row>
+    <row r="43" spans="1:9">
       <c r="B43" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="10"/>
-      <c r="I43" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9">
+    </row>
+    <row r="44" spans="1:9">
       <c r="B44" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
+      </c>
+      <c r="D44" s="2">
+        <v>2</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="10"/>
-      <c r="I44" s="2">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9">
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5</v>
       </c>
       <c r="G45" s="9"/>
       <c r="H45" s="10"/>
-      <c r="I45" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+    </row>
+    <row r="46" spans="1:9">
       <c r="B46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="G46" s="9"/>
       <c r="H46" s="10"/>
-      <c r="I46" s="2">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+    </row>
+    <row r="47" spans="1:9">
       <c r="B47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G47" s="9"/>
       <c r="H47" s="10"/>
-      <c r="I47" s="2">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9">
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="10"/>
-      <c r="I48" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+    </row>
+    <row r="49" spans="2:8">
       <c r="B49" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="G49" s="9"/>
       <c r="H49" s="10"/>
-      <c r="I49" s="2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="8" customFormat="1">
-      <c r="A51" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" spans="1:9">
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
       <c r="B52" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E52" s="2">
-        <v>2.2999999999999998</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F52" s="10"/>
       <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="H52" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
       <c r="B53" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="2">
-        <v>6.5</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F53" s="10"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="H53" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
       <c r="B54" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F54" s="10"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="H54" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
       <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="2">
-        <v>10.023400000000001</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F55" s="10"/>
       <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="H55" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
       <c r="B56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="2">
-        <v>1E-4</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="F56" s="10"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="H56" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
       <c r="B57" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0</v>
-      </c>
-      <c r="G57" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="G57" s="9">
+        <v>43835</v>
+      </c>
       <c r="H57" s="10"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="2:8">
       <c r="B58" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
-      <c r="G58" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="G58" s="9">
+        <v>43814</v>
+      </c>
       <c r="H58" s="10"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="2:8">
       <c r="B59" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D59" s="2">
-        <v>5</v>
-      </c>
-      <c r="G59" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="G59" s="9">
+        <v>43836</v>
+      </c>
       <c r="H59" s="10"/>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="2:8">
       <c r="B60" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G60" s="9"/>
+        <v>42</v>
+      </c>
+      <c r="G60" s="9">
+        <v>43815</v>
+      </c>
       <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="B61" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:9">
-      <c r="B62" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G62" s="9"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:9">
-      <c r="B63" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:9">
-      <c r="B64" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8">
-      <c r="B67" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8">
-      <c r="B71" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G71" s="9">
-        <v>43835</v>
-      </c>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G72" s="9">
-        <v>43814</v>
-      </c>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G73" s="9">
-        <v>43836</v>
-      </c>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G74" s="9">
-        <v>43815</v>
-      </c>
-      <c r="H74" s="10"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>
